--- a/mapping_schemes/east/SOM_COM.xlsx
+++ b/mapping_schemes/east/SOM_COM.xlsx
@@ -1053,7 +1053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1120,7 +1120,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
@@ -1166,7 +1166,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Wood</t>
+          <t>Block/Stone/Brick</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1176,31 +1176,31 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>W/LWAL</t>
+          <t>CR/LFINF</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Block/Stone/Brick</t>
+          <t>Wood</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MUR+CB/LWAL</t>
+          <t>W/LWAL</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1216,11 +1216,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MUR+ADO/LWAL</t>
+          <t>MUR+CB/LWAL</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MUR+STRUB/LWAL</t>
+          <t>MUR+ADO/LWAL</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1256,30 +1256,50 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MUR+CL/LWAL</t>
+          <t>MUR+STRUB/LWAL</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Block/Stone/Brick</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MUR+CL/LWAL</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Wood</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Rural</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>W/LWAL</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>1</v>
       </c>
     </row>

--- a/mapping_schemes/east/SOM_COM.xlsx
+++ b/mapping_schemes/east/SOM_COM.xlsx
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2600</v>
+        <v>130</v>
       </c>
       <c r="D2" t="n">
-        <v>545</v>
+        <v>317.1473941368078</v>
       </c>
       <c r="E2" t="n">
         <v>0.7</v>
@@ -2802,14 +2802,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Financial intermediation; insurance; real estate and business services</t>
+          <t>Professional and technical services</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>750</v>
+        <v>130</v>
       </c>
       <c r="D3" t="n">
-        <v>626</v>
+        <v>364.2830618892508</v>
       </c>
       <c r="E3" t="n">
         <v>0.25</v>
@@ -2826,14 +2826,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Community; social and personal services</t>
+          <t>All other services</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="D4" t="n">
-        <v>565</v>
+        <v>328.7858306188925</v>
       </c>
       <c r="E4" t="n">
         <v>0.05</v>
@@ -2854,16 +2854,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3100</v>
+        <v>260</v>
       </c>
       <c r="D5" t="n">
-        <v>545</v>
+        <v>317.1473941368078</v>
       </c>
       <c r="E5" t="n">
         <v>0.4</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2874,20 +2874,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Financial intermediation; insurance; real estate and business services</t>
+          <t>Professional and technical services</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>950</v>
+        <v>260</v>
       </c>
       <c r="D6" t="n">
-        <v>626</v>
+        <v>364.2830618892508</v>
       </c>
       <c r="E6" t="n">
         <v>0.4</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2898,20 +2898,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Community; social and personal services</t>
+          <t>All other services</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1200</v>
+        <v>260</v>
       </c>
       <c r="D7" t="n">
-        <v>565</v>
+        <v>328.7858306188925</v>
       </c>
       <c r="E7" t="n">
         <v>0.2</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -2926,16 +2926,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3300</v>
+        <v>450</v>
       </c>
       <c r="D8" t="n">
-        <v>545</v>
+        <v>317.1473941368078</v>
       </c>
       <c r="E8" t="n">
         <v>0.1</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -2946,20 +2946,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Financial intermediation; insurance; real estate and business services</t>
+          <t>Professional and technical services</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1300</v>
+        <v>450</v>
       </c>
       <c r="D9" t="n">
-        <v>626</v>
+        <v>364.2830618892508</v>
       </c>
       <c r="E9" t="n">
         <v>0.8</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -2970,20 +2970,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Community; social and personal services</t>
+          <t>All other services</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1500</v>
+        <v>450</v>
       </c>
       <c r="D10" t="n">
-        <v>565</v>
+        <v>328.7858306188925</v>
       </c>
       <c r="E10" t="n">
         <v>0.1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -2998,16 +2998,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5000</v>
+        <v>900</v>
       </c>
       <c r="D11" t="n">
-        <v>545</v>
+        <v>317.1473941368078</v>
       </c>
       <c r="E11" t="n">
         <v>0.05</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -3018,20 +3018,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Financial intermediation; insurance; real estate and business services</t>
+          <t>Professional and technical services</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4500</v>
+        <v>900</v>
       </c>
       <c r="D12" t="n">
-        <v>626</v>
+        <v>364.2830618892508</v>
       </c>
       <c r="E12" t="n">
         <v>0.85</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -3042,20 +3042,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Community; social and personal services</t>
+          <t>All other services</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4500</v>
+        <v>900</v>
       </c>
       <c r="D13" t="n">
-        <v>565</v>
+        <v>328.7858306188925</v>
       </c>
       <c r="E13" t="n">
         <v>0.1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -3066,20 +3066,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Financial intermediation; insurance; real estate and business services</t>
+          <t>Professional and technical services</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5100</v>
+        <v>1200</v>
       </c>
       <c r="D14" t="n">
-        <v>820</v>
+        <v>477.1758957654723</v>
       </c>
       <c r="E14" t="n">
         <v>0.05</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -3090,20 +3090,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Wholesale and retail trade</t>
+          <t>Professional and technical services</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4500</v>
+        <v>1200</v>
       </c>
       <c r="D15" t="n">
-        <v>545</v>
+        <v>317.1473941368078</v>
       </c>
       <c r="E15" t="n">
         <v>0.85</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -3114,20 +3114,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Community; social and personal services</t>
+          <t>All other services</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="D16" t="n">
-        <v>565</v>
+        <v>328.7858306188925</v>
       </c>
       <c r="E16" t="n">
         <v>0.1</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -3138,20 +3138,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Financial intermediation; insurance; real estate and business services</t>
+          <t>Professional and technical services</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5400</v>
+        <v>3200</v>
       </c>
       <c r="D17" t="n">
-        <v>820</v>
+        <v>477.1758957654723</v>
       </c>
       <c r="E17" t="n">
         <v>0.85</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -3162,20 +3162,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Wholesale and retail trade</t>
+          <t>Professional and technical services</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4500</v>
+        <v>3200</v>
       </c>
       <c r="D18" t="n">
-        <v>545</v>
+        <v>317.1473941368078</v>
       </c>
       <c r="E18" t="n">
         <v>0.05</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -3186,20 +3186,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Community; social and personal services</t>
+          <t>All other services</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="D19" t="n">
-        <v>565</v>
+        <v>328.7858306188925</v>
       </c>
       <c r="E19" t="n">
         <v>0.1</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
